--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_27_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_27_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9571336130412642</v>
+        <v>0.9581442167597631</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7959655829065373</v>
+        <v>0.8176406611921604</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5778628406615076</v>
+        <v>0.9735110977036288</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5790018083185301</v>
+        <v>0.6982088344075351</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7111353777819038</v>
+        <v>0.9281033387413365</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2866477269746287</v>
+        <v>0.2798898152556246</v>
       </c>
       <c r="H2" t="n">
-        <v>1.364379086596089</v>
+        <v>1.219437738295569</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3632558003047315</v>
+        <v>0.1325325295115373</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1813372162741656</v>
+        <v>0.4297338221677591</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2722962541529543</v>
+        <v>0.28113316874718</v>
       </c>
       <c r="L2" t="n">
-        <v>1.203766178803217</v>
+        <v>1.091241267375805</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5353949261756491</v>
+        <v>0.5290461371710643</v>
       </c>
       <c r="N2" t="n">
-        <v>1.048990156524269</v>
+        <v>1.047835180845985</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5581877966032313</v>
+        <v>0.5515687265069164</v>
       </c>
       <c r="P2" t="n">
-        <v>92.49900249855696</v>
+        <v>92.5467185404104</v>
       </c>
       <c r="Q2" t="n">
-        <v>147.348414617626</v>
+        <v>147.3961306594794</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9570322684184766</v>
+        <v>0.9581746883286901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7957968821111688</v>
+        <v>0.8176252414160492</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5969455087047619</v>
+        <v>0.9735601653736852</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5898755904432231</v>
+        <v>0.715829114926217</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7223291988610755</v>
+        <v>0.9313430673020989</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2873254189338593</v>
+        <v>0.2796860517339012</v>
       </c>
       <c r="H3" t="n">
-        <v>1.365507189591514</v>
+        <v>1.219540850409426</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3468348582041488</v>
+        <v>0.1322870281178949</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1766535349191742</v>
+        <v>0.4046435234504451</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2617444755166092</v>
+        <v>0.268465053980472</v>
       </c>
       <c r="L3" t="n">
-        <v>1.203689653612473</v>
+        <v>1.08825512312319</v>
       </c>
       <c r="M3" t="n">
-        <v>0.536027442332815</v>
+        <v>0.5288535257837478</v>
       </c>
       <c r="N3" t="n">
-        <v>1.049105978950313</v>
+        <v>1.047800356195783</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5588472402826967</v>
+        <v>0.5513679152540812</v>
       </c>
       <c r="P3" t="n">
-        <v>92.49427968335924</v>
+        <v>92.54817509736898</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.3436918024283</v>
+        <v>147.397587216438</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9569149591502467</v>
+        <v>0.9581669446146198</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7956086109542686</v>
+        <v>0.8175772277041761</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6158568444062675</v>
+        <v>0.9736128115149061</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6007312451169278</v>
+        <v>0.7326560798162133</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7334416066010674</v>
+        <v>0.9344405242217441</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2881098665506717</v>
+        <v>0.2797378339855456</v>
       </c>
       <c r="H4" t="n">
-        <v>1.366766159684615</v>
+        <v>1.219861918321805</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3305613503332784</v>
+        <v>0.1320236224777911</v>
       </c>
       <c r="J4" t="n">
-        <v>0.171977661629788</v>
+        <v>0.3806828620325905</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2512694406058421</v>
+        <v>0.2563532554124573</v>
       </c>
       <c r="L4" t="n">
-        <v>1.203606639392511</v>
+        <v>1.085447755787413</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5367586669544068</v>
+        <v>0.5289024806006734</v>
       </c>
       <c r="N4" t="n">
-        <v>1.049240046685432</v>
+        <v>1.04780920615472</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5596095946502733</v>
+        <v>0.5514189541789137</v>
       </c>
       <c r="P4" t="n">
-        <v>92.48882678102575</v>
+        <v>92.54780484323351</v>
       </c>
       <c r="Q4" t="n">
-        <v>147.3382389000948</v>
+        <v>147.3972169623025</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9567808023819636</v>
+        <v>0.9581211382584317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7954000330281563</v>
+        <v>0.8174968426490959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.634578999194245</v>
+        <v>0.9736691247465016</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6115601444437366</v>
+        <v>0.7487013009560618</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7444612473523969</v>
+        <v>0.937398079092942</v>
       </c>
       <c r="G5" t="n">
-        <v>0.289006973477916</v>
+        <v>0.2800441413002948</v>
       </c>
       <c r="H5" t="n">
-        <v>1.368160921236941</v>
+        <v>1.220399453555264</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3144506356745802</v>
+        <v>0.1317418692007083</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1673133127132434</v>
+        <v>0.3578353602032454</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2408818518604374</v>
+        <v>0.2447885073681475</v>
       </c>
       <c r="L5" t="n">
-        <v>1.20351565257594</v>
+        <v>1.082817658133221</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5375936880934485</v>
+        <v>0.5291919701774535</v>
       </c>
       <c r="N5" t="n">
-        <v>1.049393368706327</v>
+        <v>1.047861556276078</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5604801643679361</v>
+        <v>0.5517207679263034</v>
       </c>
       <c r="P5" t="n">
-        <v>92.4826089229589</v>
+        <v>92.5456160814738</v>
       </c>
       <c r="Q5" t="n">
-        <v>147.3320210420279</v>
+        <v>147.3950282005428</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9566291417369905</v>
+        <v>0.9580372782816345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7951702904589126</v>
+        <v>0.8173843639218408</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6530922282460525</v>
+        <v>0.9737286437845812</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6223525262089959</v>
+        <v>0.7639724425455873</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7553768163683122</v>
+        <v>0.9402166815066643</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2900211289091836</v>
+        <v>0.2806049133512765</v>
       </c>
       <c r="H6" t="n">
-        <v>1.36969721085534</v>
+        <v>1.221151599322337</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2985197049648138</v>
+        <v>0.1314440762388659</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1626646930636823</v>
+        <v>0.3360901045684474</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2305923656223556</v>
+        <v>0.2337670967193645</v>
       </c>
       <c r="L6" t="n">
-        <v>1.203423265922795</v>
+        <v>1.080372965925855</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5385360980558161</v>
+        <v>0.5297215432199038</v>
       </c>
       <c r="N6" t="n">
-        <v>1.049566695157725</v>
+        <v>1.047957396249561</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5614626946734592</v>
+        <v>0.5522728859895383</v>
       </c>
       <c r="P6" t="n">
-        <v>92.47560300069625</v>
+        <v>92.54161520261144</v>
       </c>
       <c r="Q6" t="n">
-        <v>147.3250151197653</v>
+        <v>147.3910273216805</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9564592333851889</v>
+        <v>0.9579154333682687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7949186405005751</v>
+        <v>0.8172400374029525</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6713779367256323</v>
+        <v>0.973791520834836</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6331015742968942</v>
+        <v>0.7784794274765625</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7661790478912569</v>
+        <v>0.942898328429149</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2911573068400377</v>
+        <v>0.2814196908479984</v>
       </c>
       <c r="H7" t="n">
-        <v>1.371379995285485</v>
+        <v>1.222116711418706</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2827845593588272</v>
+        <v>0.1311294820580561</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1580347385974375</v>
+        <v>0.3154329654826182</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2204097161943825</v>
+        <v>0.2232812148497332</v>
       </c>
       <c r="L7" t="n">
-        <v>1.20332307232531</v>
+        <v>1.078116392193361</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5395899432347101</v>
+        <v>0.5304900478312466</v>
       </c>
       <c r="N7" t="n">
-        <v>1.049760876131213</v>
+        <v>1.048096647579122</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5625614042233791</v>
+        <v>0.5530741074332098</v>
       </c>
       <c r="P7" t="n">
-        <v>92.46778316906862</v>
+        <v>92.53581632433148</v>
       </c>
       <c r="Q7" t="n">
-        <v>147.3171952881376</v>
+        <v>147.3852284434005</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9562702789437969</v>
+        <v>0.9577557107668557</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7946441946673085</v>
+        <v>0.8170640350129572</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6894127896197521</v>
+        <v>0.9738575510818532</v>
       </c>
       <c r="E8" t="n">
-        <v>0.643797339825908</v>
+        <v>0.7922331218967875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7768542690144822</v>
+        <v>0.9454447849317539</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2924208460596809</v>
+        <v>0.2824877566191017</v>
       </c>
       <c r="H8" t="n">
-        <v>1.373215215836245</v>
+        <v>1.22329364021102</v>
       </c>
       <c r="I8" t="n">
-        <v>0.26726527901</v>
+        <v>0.1307991114159074</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1534277346119667</v>
+        <v>0.2958484701560981</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2103467922482509</v>
+        <v>0.2133239599074123</v>
       </c>
       <c r="L8" t="n">
-        <v>1.203218163560261</v>
+        <v>1.076049368657036</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5407595085245205</v>
+        <v>0.5314957729080277</v>
       </c>
       <c r="N8" t="n">
-        <v>1.049976824064232</v>
+        <v>1.048279187695022</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5637807603289106</v>
+        <v>0.5541226483086473</v>
       </c>
       <c r="P8" t="n">
-        <v>92.45912252138794</v>
+        <v>92.52824013747247</v>
       </c>
       <c r="Q8" t="n">
-        <v>147.308534640457</v>
+        <v>147.3776522565415</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9560613890262387</v>
+        <v>0.9575582300442707</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7943461094950948</v>
+        <v>0.8168567341741012</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7071762488812665</v>
+        <v>0.9739264976892588</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6544294201248092</v>
+        <v>0.8052452330089516</v>
       </c>
       <c r="F9" t="n">
-        <v>0.787391606140922</v>
+        <v>0.9478582045379725</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2938176939002422</v>
+        <v>0.2838083111203437</v>
       </c>
       <c r="H9" t="n">
-        <v>1.375208512755395</v>
+        <v>1.224679861874983</v>
       </c>
       <c r="I9" t="n">
-        <v>0.251979537237507</v>
+        <v>0.1304541492812574</v>
       </c>
       <c r="J9" t="n">
-        <v>0.148848161866284</v>
+        <v>0.2773199481838782</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2004138437056284</v>
+        <v>0.2038869110996546</v>
       </c>
       <c r="L9" t="n">
-        <v>1.203109714601053</v>
+        <v>1.074494773586056</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5420495308551075</v>
+        <v>0.532736624534435</v>
       </c>
       <c r="N9" t="n">
-        <v>1.050215555398584</v>
+        <v>1.048504879949405</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5651257015808251</v>
+        <v>0.5554163255577078</v>
       </c>
       <c r="P9" t="n">
-        <v>92.4495915855054</v>
+        <v>92.51891245910683</v>
       </c>
       <c r="Q9" t="n">
-        <v>147.2990037045744</v>
+        <v>147.3683245781758</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9558317117491545</v>
+        <v>0.9573231774839127</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7940234585740737</v>
+        <v>0.8166183981109871</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7246431864819383</v>
+        <v>0.9739982695536138</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6649887793421712</v>
+        <v>0.8175267074853143</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7977764034296302</v>
+        <v>0.9501402320864866</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2953535469096711</v>
+        <v>0.2853801086737744</v>
       </c>
       <c r="H10" t="n">
-        <v>1.377366080949933</v>
+        <v>1.226273616226463</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2369489571129151</v>
+        <v>0.1300950514740207</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1442999123869511</v>
+        <v>0.2598318121139503</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1906246857944253</v>
+        <v>0.1949636367131851</v>
       </c>
       <c r="L10" t="n">
-        <v>1.202996750648023</v>
+        <v>1.073261768869102</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5434643934147582</v>
+        <v>0.5342097983693058</v>
       </c>
       <c r="N10" t="n">
-        <v>1.050478043715252</v>
+        <v>1.048773511446957</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5666007977688093</v>
+        <v>0.5569522154526193</v>
       </c>
       <c r="P10" t="n">
-        <v>92.43916435225313</v>
+        <v>92.50786654535206</v>
       </c>
       <c r="Q10" t="n">
-        <v>147.2885764713222</v>
+        <v>147.3572786644211</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9555803954304277</v>
+        <v>0.9570505874387565</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7936753056036344</v>
+        <v>0.8163493333122056</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7417896576306309</v>
+        <v>0.9740725341770353</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6754622844460545</v>
+        <v>0.8290900508188643</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8079959222552469</v>
+        <v>0.9522932416382387</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2970341002902021</v>
+        <v>0.2872029195608961</v>
       </c>
       <c r="H11" t="n">
-        <v>1.379694181466358</v>
+        <v>1.228072853774845</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2221941435132767</v>
+        <v>0.1297234815884452</v>
       </c>
       <c r="J11" t="n">
-        <v>0.139788642985565</v>
+        <v>0.2433662548203521</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1809913264924335</v>
+        <v>0.1865448536009987</v>
       </c>
       <c r="L11" t="n">
-        <v>1.202879460479102</v>
+        <v>1.072255805808003</v>
       </c>
       <c r="M11" t="n">
-        <v>0.545008348826146</v>
+        <v>0.5359131641981713</v>
       </c>
       <c r="N11" t="n">
-        <v>1.050765262365225</v>
+        <v>1.049085042927135</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5682104825584883</v>
+        <v>0.5587280970912729</v>
       </c>
       <c r="P11" t="n">
-        <v>92.42781666195668</v>
+        <v>92.49513255251546</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.2772287810257</v>
+        <v>147.3445446715845</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.955306371813312</v>
+        <v>0.9567406484030767</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7933007220966607</v>
+        <v>0.8160497515940339</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7585902755314589</v>
+        <v>0.9741493702499149</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6858366815125958</v>
+        <v>0.8399475830921862</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8180346720208844</v>
+        <v>0.9543194020739872</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2988664974796176</v>
+        <v>0.2892754833196249</v>
       </c>
       <c r="H12" t="n">
-        <v>1.38219902310229</v>
+        <v>1.230076158103706</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2077369421838727</v>
+        <v>0.1293390459110993</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1353200625456926</v>
+        <v>0.2279057331912163</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1715283679045241</v>
+        <v>0.1786220809197639</v>
       </c>
       <c r="L12" t="n">
-        <v>1.202760016916206</v>
+        <v>1.071472402299804</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5466868367535638</v>
+        <v>0.5378433631826509</v>
       </c>
       <c r="N12" t="n">
-        <v>1.051078432213358</v>
+        <v>1.049439258967912</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5699604271919251</v>
+        <v>0.5607404686425845</v>
       </c>
       <c r="P12" t="n">
-        <v>92.41551660404896</v>
+        <v>92.48075163084948</v>
       </c>
       <c r="Q12" t="n">
-        <v>147.264928723118</v>
+        <v>147.3301637499185</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9550087464633352</v>
+        <v>0.9563934937905685</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7928986886215206</v>
+        <v>0.8157199704439091</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7750182007796136</v>
+        <v>0.9742284927122136</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6961011089736617</v>
+        <v>0.8501118215827487</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8278778515088054</v>
+        <v>0.9562206067089323</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3008567195653509</v>
+        <v>0.2915969078119672</v>
       </c>
       <c r="H13" t="n">
-        <v>1.384887422801746</v>
+        <v>1.232281406173094</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1936004488632749</v>
+        <v>0.128943170689382</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1308988494877371</v>
+        <v>0.2134324233201367</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1622497622970417</v>
+        <v>0.1711879153534938</v>
       </c>
       <c r="L13" t="n">
-        <v>1.202636896484191</v>
+        <v>1.070911502663496</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5485040743379678</v>
+        <v>0.5399971368553422</v>
       </c>
       <c r="N13" t="n">
-        <v>1.051418575470474</v>
+        <v>1.049836007096493</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5718550283424977</v>
+        <v>0.5629859329194485</v>
       </c>
       <c r="P13" t="n">
-        <v>92.40224228459459</v>
+        <v>92.46476576623044</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.2516544036636</v>
+        <v>147.3141778852995</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9546864091896662</v>
+        <v>0.9560091943859155</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7924681692224044</v>
+        <v>0.8153602519538004</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7910437117749441</v>
+        <v>0.9743093568697629</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7062395024904848</v>
+        <v>0.8595964240124814</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8375090742665099</v>
+        <v>0.9579993302585301</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3030121903986027</v>
+        <v>0.2941667197004177</v>
       </c>
       <c r="H14" t="n">
-        <v>1.387766308005995</v>
+        <v>1.234686845372802</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1798102394654018</v>
+        <v>0.1285385812040594</v>
       </c>
       <c r="J14" t="n">
-        <v>0.126531923229717</v>
+        <v>0.1999268773712713</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1531709562470037</v>
+        <v>0.1642326801719238</v>
       </c>
       <c r="L14" t="n">
-        <v>1.202512714714379</v>
+        <v>1.070575535688181</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5504654307026035</v>
+        <v>0.5423713853997256</v>
       </c>
       <c r="N14" t="n">
-        <v>1.051786960926096</v>
+        <v>1.050275206416097</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5738998837081432</v>
+        <v>0.5654612581397384</v>
       </c>
       <c r="P14" t="n">
-        <v>92.38796448388689</v>
+        <v>92.44721719711622</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.2373766029559</v>
+        <v>147.2966293161852</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9543383864104947</v>
+        <v>0.9555879840996133</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7920081270359707</v>
+        <v>0.8149708855475749</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8066384305958669</v>
+        <v>0.9743921312980158</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7162380017730168</v>
+        <v>0.868414024572649</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8469112279448209</v>
+        <v>0.9596577853735053</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3053394203254198</v>
+        <v>0.2969833548244152</v>
       </c>
       <c r="H15" t="n">
-        <v>1.390842612224977</v>
+        <v>1.237290540324099</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1663907336472013</v>
+        <v>0.1281244340177217</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1222252538362642</v>
+        <v>0.1873711049594761</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1443080805929489</v>
+        <v>0.1577477233806688</v>
       </c>
       <c r="L15" t="n">
-        <v>1.202387204544357</v>
+        <v>1.070470889360616</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5525752621366793</v>
+        <v>0.5449617920775871</v>
       </c>
       <c r="N15" t="n">
-        <v>1.052184701245149</v>
+        <v>1.050756589600442</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5760995350343208</v>
+        <v>0.5681619437927573</v>
       </c>
       <c r="P15" t="n">
-        <v>92.37266253522245</v>
+        <v>92.42815837222444</v>
       </c>
       <c r="Q15" t="n">
-        <v>147.2220746542915</v>
+        <v>147.2775704912935</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.953963519427278</v>
+        <v>0.9551299061669128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7915174759407517</v>
+        <v>0.8145521491500806</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8217698411706817</v>
+        <v>0.9744762739490545</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7260789331625601</v>
+        <v>0.8765779315173954</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8560662380211421</v>
+        <v>0.961198088663098</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3078461575682941</v>
+        <v>0.3000465240696386</v>
       </c>
       <c r="H16" t="n">
-        <v>1.394123598357947</v>
+        <v>1.240090632542247</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1533699120102072</v>
+        <v>0.1277034411710876</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1179864539103133</v>
+        <v>0.1757461558715848</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1356781731595883</v>
+        <v>0.1517247685305546</v>
       </c>
       <c r="L16" t="n">
-        <v>1.202256868091593</v>
+        <v>1.071650710785425</v>
       </c>
       <c r="M16" t="n">
-        <v>0.55483885729849</v>
+        <v>0.5477650263293912</v>
       </c>
       <c r="N16" t="n">
-        <v>1.052613120654539</v>
+        <v>1.051280107237814</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5784594961284578</v>
+        <v>0.5710845175301557</v>
       </c>
       <c r="P16" t="n">
-        <v>92.35631021841817</v>
+        <v>92.407635472235</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.2057223374872</v>
+        <v>147.257047591304</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9535605644719118</v>
+        <v>0.9546351846760803</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7909950417065909</v>
+        <v>0.8141043505607778</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8364078833406792</v>
+        <v>0.9745615797207319</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7357454463960827</v>
+        <v>0.8841011333696263</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8649560503033538</v>
+        <v>0.962622463966759</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3105407192102641</v>
+        <v>0.303354728956818</v>
       </c>
       <c r="H17" t="n">
-        <v>1.397617118487369</v>
+        <v>1.243085063770838</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1407736418034116</v>
+        <v>0.1272766288564114</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1138227813922836</v>
+        <v>0.1650335351739184</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1272982526072491</v>
+        <v>0.1461551198765958</v>
       </c>
       <c r="L17" t="n">
-        <v>1.202127477143902</v>
+        <v>1.088287144684552</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5572618049088455</v>
+        <v>0.5507764782167245</v>
       </c>
       <c r="N17" t="n">
-        <v>1.053073640603529</v>
+        <v>1.051845503227337</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5809855936347791</v>
+        <v>0.5742241731588976</v>
       </c>
       <c r="P17" t="n">
-        <v>92.33888049086602</v>
+        <v>92.3857048712087</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.188292609935</v>
+        <v>147.2351169902777</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9531283844806663</v>
+        <v>0.9541038636994015</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7904397355259462</v>
+        <v>0.8136276686870536</v>
       </c>
       <c r="D18" t="n">
-        <v>0.850516500906911</v>
+        <v>0.9746479132308965</v>
       </c>
       <c r="E18" t="n">
-        <v>0.745221859072221</v>
+        <v>0.8909971442568755</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8735608643048616</v>
+        <v>0.9639332747659075</v>
       </c>
       <c r="G18" t="n">
-        <v>0.313430708801729</v>
+        <v>0.3069076747743777</v>
       </c>
       <c r="H18" t="n">
-        <v>1.40133045347429</v>
+        <v>1.24627263765535</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1286329499646592</v>
+        <v>0.1268446744343028</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1097409911876921</v>
+        <v>0.155213999501062</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1191869837287623</v>
+        <v>0.1410295356402589</v>
       </c>
       <c r="L18" t="n">
-        <v>1.202017333770581</v>
+        <v>1.104922247825666</v>
       </c>
       <c r="M18" t="n">
-        <v>0.55984882673962</v>
+        <v>0.5539924862075096</v>
       </c>
       <c r="N18" t="n">
-        <v>1.053567560593524</v>
+        <v>1.052452727200684</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5836827503407631</v>
+        <v>0.5775770932679046</v>
       </c>
       <c r="P18" t="n">
-        <v>92.32035393578916</v>
+        <v>92.36241662051663</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.1697660548582</v>
+        <v>147.2118287395857</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9526657109118325</v>
+        <v>0.953536094553223</v>
       </c>
       <c r="C19" t="n">
-        <v>0.789850377506945</v>
+        <v>0.8131223948322864</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8640609360375141</v>
+        <v>0.974734954718839</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7544858899314417</v>
+        <v>0.8972786731448026</v>
       </c>
       <c r="F19" t="n">
-        <v>0.881859686100544</v>
+        <v>0.9651326734361895</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3165246090869363</v>
+        <v>0.3107043496692103</v>
       </c>
       <c r="H19" t="n">
-        <v>1.405271493261095</v>
+        <v>1.24965140624875</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1169777461660816</v>
+        <v>0.1264091777708174</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1057506805386619</v>
+        <v>0.1462694519932953</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1113641563035988</v>
+        <v>0.1363395995171559</v>
       </c>
       <c r="L19" t="n">
-        <v>1.203038703141243</v>
+        <v>1.12154745895207</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5626051982402369</v>
+        <v>0.5574086020767981</v>
       </c>
       <c r="N19" t="n">
-        <v>1.054096330386477</v>
+        <v>1.053101606224888</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5865564662826369</v>
+        <v>0.5811386402620835</v>
       </c>
       <c r="P19" t="n">
-        <v>92.30070857318279</v>
+        <v>92.33782692620416</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.1501206922518</v>
+        <v>147.1872390452732</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9521712412490146</v>
+        <v>0.952932037385943</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7892256968545268</v>
+        <v>0.8125887225354069</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8770052999699626</v>
+        <v>0.9748225103122041</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7635183070979623</v>
+        <v>0.902959031748828</v>
       </c>
       <c r="F20" t="n">
-        <v>0.889831523471286</v>
+        <v>0.9662231236736191</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3198311299990232</v>
+        <v>0.3147436827282387</v>
       </c>
       <c r="H20" t="n">
-        <v>1.409448735660205</v>
+        <v>1.253220075355318</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1058389132637953</v>
+        <v>0.1259711088719349</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1018601332214347</v>
+        <v>0.1381809375087867</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1038495585030738</v>
+        <v>0.1320756778656791</v>
       </c>
       <c r="L20" t="n">
-        <v>1.204160731397374</v>
+        <v>1.138161972434599</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5655361438484928</v>
+        <v>0.5610202159710813</v>
       </c>
       <c r="N20" t="n">
-        <v>1.054661438572555</v>
+        <v>1.053791957273208</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5896121883133302</v>
+        <v>0.5849040080369178</v>
       </c>
       <c r="P20" t="n">
-        <v>92.27992428246793</v>
+        <v>92.31199335403852</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.129336401537</v>
+        <v>147.1614054731075</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9516435571866976</v>
+        <v>0.9522917217353295</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7885644824944669</v>
+        <v>0.8120268439762022</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8893105342534682</v>
+        <v>0.9749104973828929</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7722951144854534</v>
+        <v>0.9080521153981006</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8974531365430124</v>
+        <v>0.967206649858275</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3233597557534987</v>
+        <v>0.319025476432274</v>
       </c>
       <c r="H21" t="n">
-        <v>1.413870279130538</v>
+        <v>1.256977359867934</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09525006168153549</v>
+        <v>0.1255308811527106</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09807968510818876</v>
+        <v>0.1309286698722398</v>
       </c>
       <c r="K21" t="n">
-        <v>0.09666509723502904</v>
+        <v>0.1282298548747703</v>
       </c>
       <c r="L21" t="n">
-        <v>1.20539661089152</v>
+        <v>1.154776819338818</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5686473034786138</v>
+        <v>0.5648234028723261</v>
       </c>
       <c r="N21" t="n">
-        <v>1.055264506072346</v>
+        <v>1.054523746588195</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5928557964498936</v>
+        <v>0.5888691044782308</v>
       </c>
       <c r="P21" t="n">
-        <v>92.25797956133273</v>
+        <v>92.2849686319243</v>
       </c>
       <c r="Q21" t="n">
-        <v>147.1073916804017</v>
+        <v>147.1343807509933</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9510812983904797</v>
+        <v>0.9516151598485867</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7878654471790891</v>
+        <v>0.8114369251553941</v>
       </c>
       <c r="D22" t="n">
-        <v>0.90093707374258</v>
+        <v>0.9749985121787389</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7807954277228879</v>
+        <v>0.9125685944133806</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9047023104233465</v>
+        <v>0.968085325484397</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3271195829127717</v>
+        <v>0.3235496488842037</v>
       </c>
       <c r="H22" t="n">
-        <v>1.418544731503231</v>
+        <v>1.260922149739003</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08524523786192639</v>
+        <v>0.125090514715574</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09441833175705355</v>
+        <v>0.1244974551407996</v>
       </c>
       <c r="K22" t="n">
-        <v>0.08983171321534086</v>
+        <v>0.1247940226852355</v>
       </c>
       <c r="L22" t="n">
-        <v>1.211635365317596</v>
+        <v>1.171391439580839</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5719436885854863</v>
+        <v>0.5688142481374774</v>
       </c>
       <c r="N22" t="n">
-        <v>1.055907087553738</v>
+        <v>1.055296960173044</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5962925154952234</v>
+        <v>0.5930298482885081</v>
       </c>
       <c r="P22" t="n">
-        <v>92.23485895590954</v>
+        <v>92.2568054053548</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.0842710749786</v>
+        <v>147.1062175244238</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9504830178111696</v>
+        <v>0.9509025766090161</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7871272894284871</v>
+        <v>0.8108190975676941</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9118428091553328</v>
+        <v>0.9750864860407997</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7889943985656739</v>
+        <v>0.9165219587704082</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9115533013548498</v>
+        <v>0.9688614406692523</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3311202879014468</v>
+        <v>0.3283146962883567</v>
       </c>
       <c r="H23" t="n">
-        <v>1.423480795780411</v>
+        <v>1.265053565662788</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07586067751789242</v>
+        <v>0.1246503530833793</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09088677609168204</v>
+        <v>0.1188680843398616</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08337367362032344</v>
+        <v>0.1217592263899502</v>
       </c>
       <c r="L23" t="n">
-        <v>1.222832584441329</v>
+        <v>1.188007489921289</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5754305239570168</v>
+        <v>0.5729875184402857</v>
       </c>
       <c r="N23" t="n">
-        <v>1.056590836787235</v>
+        <v>1.056111341018267</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5999277926672644</v>
+        <v>0.5973807833479675</v>
       </c>
       <c r="P23" t="n">
-        <v>92.21054712412874</v>
+        <v>92.22756538132549</v>
       </c>
       <c r="Q23" t="n">
-        <v>147.0599592431978</v>
+        <v>147.0769775003945</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9498471177065677</v>
+        <v>0.9501539318964689</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7863486805778545</v>
+        <v>0.8101735209213046</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9219856263095352</v>
+        <v>0.9751741737911798</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7968648294192657</v>
+        <v>0.9199228812382343</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9179808567871756</v>
+        <v>0.9695367619136238</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3353725548289703</v>
+        <v>0.3333208869283517</v>
       </c>
       <c r="H24" t="n">
-        <v>1.428687356749755</v>
+        <v>1.269370539669802</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06713262057908134</v>
+        <v>0.1242116229602876</v>
       </c>
       <c r="J24" t="n">
-        <v>0.08749673297494462</v>
+        <v>0.1140253600403416</v>
       </c>
       <c r="K24" t="n">
-        <v>0.07731478259329642</v>
+        <v>0.1191185585476784</v>
       </c>
       <c r="L24" t="n">
-        <v>1.234089045072665</v>
+        <v>1.204630387068083</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5791135940633498</v>
+        <v>0.577339490186105</v>
       </c>
       <c r="N24" t="n">
-        <v>1.057317579763923</v>
+        <v>1.056966934975464</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6037676586930302</v>
+        <v>0.6019180275408298</v>
       </c>
       <c r="P24" t="n">
-        <v>92.18502652223904</v>
+        <v>92.19729925716037</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.0344386413081</v>
+        <v>147.0467113762294</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9491720818162589</v>
+        <v>0.9493692889592801</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7855282350057552</v>
+        <v>0.8095003274299358</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9313192640128115</v>
+        <v>0.975261546945105</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8043829841008596</v>
+        <v>0.9227843435016008</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9239589146030109</v>
+        <v>0.9701136673763431</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3398865229357198</v>
+        <v>0.3385677978622816</v>
       </c>
       <c r="H25" t="n">
-        <v>1.434173680068187</v>
+        <v>1.273872187646355</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05910087554395781</v>
+        <v>0.1237744668648197</v>
       </c>
       <c r="J25" t="n">
-        <v>0.08425842633036333</v>
+        <v>0.109950797045725</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07167960741032516</v>
+        <v>0.1168627199876885</v>
       </c>
       <c r="L25" t="n">
-        <v>1.245401046147669</v>
+        <v>1.221262412943868</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5829978755842252</v>
+        <v>0.5818657902491619</v>
       </c>
       <c r="N25" t="n">
-        <v>1.058089049352847</v>
+        <v>1.057863669760823</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6078173021198205</v>
+        <v>0.6066370215683038</v>
       </c>
       <c r="P25" t="n">
-        <v>92.15828694630459</v>
+        <v>92.16606183515857</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.0076990653736</v>
+        <v>147.0154739542276</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9484563029380429</v>
+        <v>0.9485486425013255</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7846645803209937</v>
+        <v>0.80879956046718</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9397987199097972</v>
+        <v>0.9753484620566402</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8115184777173077</v>
+        <v>0.9251155353710796</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9294594977694918</v>
+        <v>0.9705937737227316</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3446729395902088</v>
+        <v>0.3440554645053532</v>
       </c>
       <c r="H26" t="n">
-        <v>1.439948942921951</v>
+        <v>1.278558219553038</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05180416766153627</v>
+        <v>0.1233396025032975</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08118494389097135</v>
+        <v>0.1066313095772603</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06649452042948099</v>
+        <v>0.1149853891612926</v>
       </c>
       <c r="L26" t="n">
-        <v>1.256767713505463</v>
+        <v>1.237903947408561</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5870885278986542</v>
+        <v>0.5865624131372152</v>
       </c>
       <c r="N26" t="n">
-        <v>1.058907082356522</v>
+        <v>1.058801551427057</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6120821019720922</v>
+        <v>0.6115335894160512</v>
       </c>
       <c r="P26" t="n">
-        <v>92.13031862555179</v>
+        <v>92.13390480115672</v>
       </c>
       <c r="Q26" t="n">
-        <v>146.9797307446208</v>
+        <v>146.9833169202257</v>
       </c>
     </row>
   </sheetData>
